--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39985,7 +39985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40048,7 +40048,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>135.42913</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>135.17006</v>
       </c>
     </row>
     <row r="4" ht="14.75" customHeight="1" s="49">
@@ -40093,10 +40096,13 @@
         <v>0.00851</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.1716</v>
+        <v>0.00689</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>8.844799999999999</v>
+        <v>0.9487</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.838039999999999</v>
       </c>
     </row>
     <row r="7" ht="14.75" customHeight="1" s="49">
@@ -40109,10 +40115,13 @@
         <v>0.62925</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>86.6203</v>
+        <v>0.67919</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1344.21886</v>
+        <v>93.49553</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1751.15355</v>
       </c>
     </row>
     <row r="8" ht="14.75" customHeight="1" s="49">
@@ -40177,6 +40186,9 @@
       </c>
       <c r="D11" s="4" t="n">
         <v>1.16344</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.5511</v>
       </c>
     </row>
     <row r="12" ht="14.75" customHeight="1" s="49">
